--- a/Course allocation template.xlsx
+++ b/Course allocation template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chloe\Documents\Analyses\CEGEP-CI-CalculatoR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3707053C-EC83-450A-98E9-54AD684950EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA83CFE-24FB-4616-99E1-76F7C9C34A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1FC63239-0B51-47A0-B8FF-FB9DFE3E6A3B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1FC63239-0B51-47A0-B8FF-FB9DFE3E6A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Code</t>
   </si>
@@ -73,7 +73,19 @@
     <t>First Name</t>
   </si>
   <si>
-    <t>Teacher Last Name</t>
+    <t>Scenario 1</t>
+  </si>
+  <si>
+    <t>Scenario 2</t>
+  </si>
+  <si>
+    <t>Scenario 3</t>
+  </si>
+  <si>
+    <t>Scenario 4</t>
+  </si>
+  <si>
+    <t>Scenario 5</t>
   </si>
 </sst>
 </file>
@@ -470,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1C9E49-20E5-4650-88BF-E0A3A451D972}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -480,9 +492,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09D3576-105A-469D-87B8-FE500BE30CD5}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -496,11 +508,11 @@
     <col min="5" max="5" width="8.7265625" style="1"/>
     <col min="6" max="6" width="17.08984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.7265625" style="1"/>
-    <col min="8" max="8" width="21.08984375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="8" max="12" width="10.1796875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -522,8 +534,20 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -546,7 +570,8 @@
     <col min="2" max="2" width="15.6328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.36328125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="5" max="14" width="10.1796875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">

--- a/Course allocation template.xlsx
+++ b/Course allocation template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chloe\Documents\Analyses\CEGEP-CI-CalculatoR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA83CFE-24FB-4616-99E1-76F7C9C34A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B0B85A-5A8F-4247-8739-B52354616730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1FC63239-0B51-47A0-B8FF-FB9DFE3E6A3B}"/>
   </bookViews>

--- a/Course allocation template.xlsx
+++ b/Course allocation template.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chloe\Documents\Analyses\CEGEP-CI-CalculatoR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B0B85A-5A8F-4247-8739-B52354616730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ADDFFC-7E36-4970-8A9F-35545BA0113E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1FC63239-0B51-47A0-B8FF-FB9DFE3E6A3B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1FC63239-0B51-47A0-B8FF-FB9DFE3E6A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="3" r:id="rId1"/>
     <sheet name="Courses" sheetId="1" r:id="rId2"/>
     <sheet name="Teachers" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Courses!$A$1:$J$195</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,8 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +39,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>Semester</t>
+  </si>
   <si>
     <t>Code</t>
   </si>
@@ -46,33 +50,30 @@
     <t>Class Name</t>
   </si>
   <si>
+    <t>Lecture/Lab/Stage</t>
+  </si>
+  <si>
     <t>Hours</t>
   </si>
   <si>
-    <t>Lecture/Lab/Stage</t>
-  </si>
-  <si>
     <t>Students/section</t>
   </si>
   <si>
-    <t>Semester</t>
-  </si>
-  <si>
     <t>Nejk</t>
   </si>
   <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
     <t>Fall Release</t>
   </si>
   <si>
     <t>Winter Release</t>
   </si>
   <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
     <t>Scenario 1</t>
   </si>
   <si>
@@ -82,17 +83,69 @@
     <t>Scenario 3</t>
   </si>
   <si>
-    <t>Scenario 4</t>
-  </si>
-  <si>
-    <t>Scenario 5</t>
+    <t>Summer Release</t>
+  </si>
+  <si>
+    <t>Courses Tab</t>
+  </si>
+  <si>
+    <t>CEGEP CI Calculator</t>
+  </si>
+  <si>
+    <t>https://chloedebyser.shinyapps.io/cegep-ci-calculator/</t>
+  </si>
+  <si>
+    <t>Populate this worksheet and use it as input to the online CEGEP CI Calculator created by Chloé Debyser and Benjamin "Max" Adams. The calculator uses CI calculation rules from the 2023-2028 Collective Agreement. This tool was created for the purposes of estimating CI for personal use; the output should not be considered definitive and may not be accurate. This tool is not associated with any specific college or program and is the sole property of the individuals who created it.</t>
+  </si>
+  <si>
+    <t>CODE (mandatory) - Unique course code.</t>
+  </si>
+  <si>
+    <t>CLASS NAME (optional) - Name or short description of the course.</t>
+  </si>
+  <si>
+    <t>LECTURE/LAB/STAGE (mandatory) - One of "Lecture", "Lab" or "Stage".</t>
+  </si>
+  <si>
+    <t>Teachers Tab</t>
+  </si>
+  <si>
+    <t>HOURS (variable) - The number of hours in the class ponderation. Mandatory for Lab and Lecture courses; should be left blank for Stage courses. If a class is split between multiple teachers or a teacher only teaches a portion of a course, adjust hours accordingly. E.g. if a 3hr Lecture course is taught by two teachers, the course should be split across two rows and each teacher assigned 1.5hrs. If a teacher replaces another teacher for the last quarter of a semester in a 2hr Lab course, assign 0.5hrs to the replacement teacher.</t>
+  </si>
+  <si>
+    <t>STUDENTS/SECTION (mandatory) - Number of students in the section.</t>
+  </si>
+  <si>
+    <t>NEJK (variable) - Value used to calculate CI for Stage courses (typically provided by the college). Mandatory for Stage courses; should be left blank for Lecture and Lab courses.</t>
+  </si>
+  <si>
+    <t>SEMESTER (mandatory) - Semester name (e.g. "Fall", "Winter", "Summer").</t>
+  </si>
+  <si>
+    <t>*SEMESTER* RELEASE (optional) - A release column must be created for each semester included in the Courses tab (e.g. "Fall Release", "Winter Release", and "Summer Release"). Release values should be between 0 and 1. A release of 0.5 per semester equates to 20 CI; a release of 1 corresponds to 40 CI. Reductions in workload should be treated as release (e.g. a retiring teacher on a 0.75 FTE should be given 0.25 release per semester).</t>
+  </si>
+  <si>
+    <t>Troubleshooting</t>
+  </si>
+  <si>
+    <t>Incorrect data entries will result in a "disconnected" message in the app. If that happens, please review your data, paying particular attention to columns names, semester names (all semester listed in the Courses tab must have a corresponding column in the Teachers tab), and teacher last names (all teachers listed in the Courses tab must have a corresponding row in the Teachers tab).
+The app will become idle after a few minutes without use, to preserve web hosting hours. This will also result in a "disconnected" message. When that happens, please refresh your webpage.</t>
+  </si>
+  <si>
+    <t>SCENARIO X (optional) - Last name of the teacher assigned to the section, under scenario X. Teacher last name must be unique, so if two teachers share a last name, please add an initial or other unique identifier. If no teacher name is provided, the course will be excluded from the computation. Add a column for each scenario for which you wish to calculate CI. This template includes three scenarios (Scenario 1, Scenario 2, Scenario 3). At least one scenario must be provided; there is no limit to the number of scenarios included.</t>
+  </si>
+  <si>
+    <t>FIRST NAME (optional) - Teacher first name.</t>
+  </si>
+  <si>
+    <t>LAST NAME (mandatory) - Teacher last name. All teachers listed in the Courses tab must be listed in the Teachers tab. Teacher last name must be unique, so if two teachers share a last name, please add an initial or other unique identifier to the Last Name column.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,8 +161,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +231,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,10 +256,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -146,8 +271,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -480,113 +642,2191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1C9E49-20E5-4650-88BF-E0A3A451D972}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:R1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A3:R6"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A27:R30"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2:R2" r:id="rId1" display="https://chloedebyser.shinyapps.io/cegep-ci-calculator/" xr:uid="{65B8DE69-1062-473C-97CE-2E3AAD592397}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09D3576-105A-469D-87B8-FE500BE30CD5}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:J191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="1"/>
     <col min="3" max="3" width="31.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="1"/>
-    <col min="6" max="6" width="17.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="1"/>
-    <col min="8" max="12" width="10.1796875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="17.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7265625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="15"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="15"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="15"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="15"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="15"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="F50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="F52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="F53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="F55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="F56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="F58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="F59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="F61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="F62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" s="4"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88" s="4"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+    </row>
+    <row r="109" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A131" s="4"/>
+      <c r="B131" s="5"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A132" s="4"/>
+      <c r="B132" s="5"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A133" s="4"/>
+      <c r="B133" s="5"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A134" s="4"/>
+      <c r="B134" s="5"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A135" s="4"/>
+      <c r="B135" s="5"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A136" s="4"/>
+      <c r="B136" s="5"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A137" s="4"/>
+      <c r="B137" s="5"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A138" s="4"/>
+      <c r="B138" s="5"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A139" s="4"/>
+      <c r="B139" s="5"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A140" s="4"/>
+      <c r="B140" s="5"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A141" s="4"/>
+      <c r="B141" s="5"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A142" s="4"/>
+      <c r="B142" s="5"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A143" s="4"/>
+      <c r="B143" s="5"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A144" s="4"/>
+      <c r="B144" s="5"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A145" s="4"/>
+      <c r="B145" s="5"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A146" s="4"/>
+      <c r="B146" s="5"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A147" s="4"/>
+      <c r="B147" s="5"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A148" s="4"/>
+      <c r="B148" s="5"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A149" s="4"/>
+      <c r="B149" s="5"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A150" s="4"/>
+      <c r="B150" s="5"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A151" s="4"/>
+      <c r="B151" s="5"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A152" s="4"/>
+      <c r="B152" s="5"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A153" s="4"/>
+      <c r="B153" s="5"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A160" s="4"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A161" s="4"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A162" s="4"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A163" s="4"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
+      <c r="J163" s="4"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A165" s="4"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A168" s="4"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A169" s="4"/>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A172" s="4"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A173" s="4"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A174" s="4"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A181" s="4"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4"/>
+      <c r="J181" s="4"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A182" s="4"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4"/>
+      <c r="J182" s="4"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A183" s="4"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A184" s="4"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="4"/>
+      <c r="J184" s="4"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+      <c r="J185" s="4"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A186" s="4"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A187" s="4"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="4"/>
+      <c r="I187" s="4"/>
+      <c r="J187" s="4"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A188" s="4"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="4"/>
+      <c r="I188" s="4"/>
+      <c r="J188" s="4"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A189" s="4"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="4"/>
+      <c r="I189" s="4"/>
+      <c r="J189" s="4"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A190" s="4"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="4"/>
+      <c r="I190" s="4"/>
+      <c r="J190" s="4"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A191" s="4"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="4"/>
+      <c r="I191" s="4"/>
+      <c r="J191" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ACA664-DBD6-446E-8CFF-B6AE07AE477A}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" style="1" customWidth="1"/>
-    <col min="5" max="14" width="10.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" style="1" customWidth="1"/>
+    <col min="6" max="14" width="10.1796875" style="1" customWidth="1"/>
     <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
